--- a/mageproductcsv/resources/wmf-standmixer-2.xlsx
+++ b/mageproductcsv/resources/wmf-standmixer-2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16640" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,9 +46,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>wmf-Lono-mixer-329867.jpg</t>
-  </si>
-  <si>
     <t>&lt;img  width='100%'  src='https://gd2.alicdn.com/imgextra/i2/436747858/TB2t0WTapXXXXXjXXXXXXXXXXXX_!!436747858.jpg' /&gt;</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>该款打蛋搅拌器外观靓丽轻巧，易操作。1档启用TURBO涡轮增压键，速度可达1300转/分。5档设置适合不同需求。
 用途：打发蛋白 奶油 揉面。</t>
     <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>wmf-KultX-mixer329886.jpg</t>
   </si>
   <si>
     <t>&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i3/2436535735/TB2pUB9kXXXXXcgXXXXXXXXXXXX-2436535735.jpg' /&gt;,&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i3/2436535735/TB2lVlUkXXXXXagXpXXXXXXXXXX-2436535735.jpg' /&gt;,&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i1/2436535735/TB2uwNYkXXXXXabXpXXXXXXXXXX-2436535735.jpg' /&gt;</t>
@@ -106,9 +100,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>wmf-Lono-stick-mixer-329910.jpg</t>
-  </si>
-  <si>
     <t>&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i3/822993108/TB29rGgXXXXXXc_XVXXXXXXXXXX_!!822993108.jpg' /&gt;</t>
   </si>
   <si>
@@ -136,9 +127,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>wmf-KultX-mixer-329888.jpg</t>
-  </si>
-  <si>
     <t>&lt;img  width='100%'  src='https://img.alicdn.com/tfscom/i6/TB1aX5ULFXXXXa4XVXXL6TaGpXX' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/tfscom/i6/TB1KnS5LFXXXXaTXpXXL6TaGpXX'/&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/tfscom/i1/TB1Eq1QLFXXXXc8XVXXL6TaGpXX' /&gt;</t>
   </si>
   <si>
@@ -166,9 +154,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>wmf-juicy-bottle.jpg</t>
-  </si>
-  <si>
     <t>不锈钢质地；700W功率；74mm超大注入口；2L可拆卸榨渣容量；微小滤嘴；2种可调功率适合不同的水果和蔬菜；高稳定性：包括1250ml带盖式果汁罐可卸下存入冰箱；方便易操作。</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -185,9 +170,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>wmf-entsafter-kultpro.jpg</t>
-  </si>
-  <si>
     <t>&lt;img width='100%' src='http://image.baidu.com/search/detail?ct=503316480&amp;z=0&amp;ipn=d&amp;word=wmf%E6%A6%A8%E6%B1%81%E6%9C%BA&amp;step_word=&amp;pn=3&amp;spn=0&amp;di=182382881681&amp;pi=&amp;rn=1&amp;tn=baiduimagedetail&amp;is=&amp;istype=2&amp;ie=utf-8&amp;oe=utf-8&amp;in=&amp;cl=2&amp;lm=-1&amp;st=-1&amp;cs=963681984%2C3340097281&amp;os=556878949%2C2513038077&amp;simid=3554563921%2C525308585&amp;adpicid=0&amp;ln=821&amp;fr=&amp;fmq=1456907159674_R&amp;ic=0&amp;s=undefined&amp;se=&amp;sme=&amp;tab=0&amp;width=&amp;height=&amp;face=undefined&amp;ist=&amp;jit=&amp;cg=&amp;bdtype=15&amp;objurl=http%3A%2F%2Ftaotaoyang.com%2Fimages%2Fupload%2FImage%2FT2xwg7XmpXXXXXXXXX_!!48598136(1).jpg&amp;fromurl=ippr_z2C%24qAzdH3FAzdH3Fpw5pw5ywg2_z%26e3Bv54AzdH3F2551f_z%26e3Brir%3Ft1%3D8bc&amp;gsm=0' /&gt;</t>
   </si>
   <si>
@@ -223,15 +205,30 @@
   </si>
   <si>
     <t>brand</t>
+  </si>
+  <si>
+    <t>/wmf/electrician/wmf-Lono-mixer-329867.jpg</t>
+  </si>
+  <si>
+    <t>/wmf/electrician/wmf-KultX-mixer329886.jpg</t>
+  </si>
+  <si>
+    <t>/wmf/electrician/wmf-Lono-stick-mixer-329910.jpg</t>
+  </si>
+  <si>
+    <t>/wmf/electrician/wmf-KultX-mixer-329888.jpg</t>
+  </si>
+  <si>
+    <t>/wmf/electrician/wmf-juicy-bottle.jpg</t>
+  </si>
+  <si>
+    <t>/wmf/electrician/wmf-entsafter-kultpro.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -266,10 +263,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -606,44 +603,44 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -655,7 +652,7 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>168</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -674,13 +671,13 @@
         <v>5</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -690,34 +687,34 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3">
+        <v>168</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2">
-        <v>168</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -727,106 +724,106 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3">
+        <v>155</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2">
-        <v>155</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3">
+        <v>79.989999999999995</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="2">
-        <v>79.989999999999995</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="K5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3">
+        <v>11.99</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="2">
-        <v>11.99</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="J6" s="2"/>
       <c r="K6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -836,34 +833,34 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="2">
+        <v>33</v>
+      </c>
+      <c r="C7" s="3">
         <v>199.99</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
